--- a/NformTester/NformTester/Keywordscripts/900.20.20_Gadgetglobaloffsetvalue.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.20.20_Gadgetglobaloffsetvalue.xlsx
@@ -4827,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6497,7 +6497,7 @@
         <v>912</v>
       </c>
       <c r="J60" s="4">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -6647,7 +6647,7 @@
         <v>912</v>
       </c>
       <c r="J66" s="4">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
